--- a/tests/xl/from-schema.xlsx
+++ b/tests/xl/from-schema.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=False - DateTime=2024-09-30 08:42:21.933582 - SchemaUrl=None</t>
+    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=False - DateTime=2024-10-04 13:00:12.297611 - SchemaUrl=None</t>
   </si>
 </sst>
 </file>
@@ -847,16 +847,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/tests/xl/from-schema.xlsx
+++ b/tests/xl/from-schema.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=False - DateTime=2024-10-04 13:00:12.297611 - SchemaUrl=None</t>
+    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-18 09:28:30.375144 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
